--- a/Documents/Hypotheses Chain Leader.xlsx
+++ b/Documents/Hypotheses Chain Leader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Risk-based-solvency\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5300ED-BB9B-48B8-9DB9-716A3B40848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E23146-C08E-4C7C-88F6-F1B0DFA07B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{73E4CA1F-ACB0-4437-ACE3-5463DD028386}"/>
   </bookViews>
@@ -238,6 +238,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -264,13 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6230,15 +6230,12 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="85000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
@@ -20512,51 +20509,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
@@ -20590,18 +20587,18 @@
       <c r="M3" s="1">
         <v>10</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -20654,18 +20651,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M2/'[1]Cumulative Somme'!L2 =1,"",'[1]Cumulative Somme'!M2/'[1]Cumulative Somme'!L2),"")</f>
         <v>0</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -20718,18 +20715,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M3/'[1]Cumulative Somme'!L3 =1,"",'[1]Cumulative Somme'!M3/'[1]Cumulative Somme'!L3),"")</f>
         <v/>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -20782,18 +20779,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M4/'[1]Cumulative Somme'!L4 =1,"",'[1]Cumulative Somme'!M4/'[1]Cumulative Somme'!L4),"")</f>
         <v/>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -20846,18 +20843,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M5/'[1]Cumulative Somme'!L5 =1,"",'[1]Cumulative Somme'!M5/'[1]Cumulative Somme'!L5),"")</f>
         <v/>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -20910,18 +20907,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M6/'[1]Cumulative Somme'!L6 =1,"",'[1]Cumulative Somme'!M6/'[1]Cumulative Somme'!L6),"")</f>
         <v/>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -20974,18 +20971,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M7/'[1]Cumulative Somme'!L7 =1,"",'[1]Cumulative Somme'!M7/'[1]Cumulative Somme'!L7),"")</f>
         <v/>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -21038,18 +21035,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M8/'[1]Cumulative Somme'!L8 =1,"",'[1]Cumulative Somme'!M8/'[1]Cumulative Somme'!L8),"")</f>
         <v/>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -21102,18 +21099,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M9/'[1]Cumulative Somme'!L9 =1,"",'[1]Cumulative Somme'!M9/'[1]Cumulative Somme'!L9),"")</f>
         <v/>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -21166,18 +21163,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M10/'[1]Cumulative Somme'!L10 =1,"",'[1]Cumulative Somme'!M10/'[1]Cumulative Somme'!L10),"")</f>
         <v/>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -21230,18 +21227,18 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M11/'[1]Cumulative Somme'!L11 =1,"",'[1]Cumulative Somme'!M11/'[1]Cumulative Somme'!L11),"")</f>
         <v/>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -21291,61 +21288,61 @@
         <f>IFERROR(IF('[1]Cumulative Somme'!M12/'[1]Cumulative Somme'!L12 =1,"",'[1]Cumulative Somme'!M12/'[1]Cumulative Somme'!L12),"")</f>
         <v/>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -21383,18 +21380,18 @@
       <c r="M17" s="7">
         <v>10</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -21403,925 +21400,925 @@
       <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="14">
         <f>AVERAGE(C4:C13)</f>
         <v>3.879543962445049</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="14">
         <f>AVERAGE(D4:D12)</f>
         <v>1.7392600569226961</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="14">
         <f>AVERAGE(E4:E11)</f>
         <v>1.3336732813261369</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="14">
         <f>AVERAGE(F4:F10)</f>
         <v>1.1794131509482573</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="14">
         <f>AVERAGE(G4:G9)</f>
         <v>1.1177613152782069</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="14">
         <f>AVERAGE(H4:H8)</f>
         <v>1.0596887934671051</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="14">
         <f>AVERAGE(J4:J6)</f>
         <v>1.0230343697199233</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="14">
         <f>AVERAGE(K4:K5)</f>
         <v>1.0177294115574544</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M18" s="9"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="14">
         <v>3.879543962445049</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="14">
         <v>1.7392600569226961</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="14">
         <v>1.3336732813261369</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="14">
         <v>1.1794131509482573</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="14">
         <v>1.1177613152782069</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="14">
         <v>1.0596887934671051</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="14">
         <v>1.0230343697199233</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="14">
         <v>1.0177294115574544</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M19" s="9"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="10">
         <v>3</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="14">
         <v>3.879543962445049</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="14">
         <v>1.7392600569226961</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="14">
         <v>1.3336732813261369</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="14">
         <v>1.1794131509482573</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="14">
         <v>1.1177613152782069</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="14">
         <v>1.0596887934671051</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="14">
         <v>1.0230343697199233</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="14">
         <v>1.0177294115574544</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M20" s="9"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="10">
         <v>4</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="14">
         <v>3.879543962445049</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="14">
         <v>1.7392600569226961</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="14">
         <v>1.3336732813261369</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="14">
         <v>1.1794131509482573</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="14">
         <v>1.1177613152782069</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="14">
         <v>1.0596887934671051</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="14">
         <v>1.0230343697199233</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="14">
         <v>1.0177294115574544</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M21" s="9"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="14">
         <v>3.879543962445049</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="14">
         <v>1.7392600569226961</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="14">
         <v>1.3336732813261369</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="14">
         <v>1.1794131509482573</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="14">
         <v>1.1177613152782069</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="14">
         <v>1.0596887934671051</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="14">
         <v>1.0230343697199233</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="14">
         <v>1.0177294115574544</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M22" s="9"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="10">
         <v>6</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="14">
         <v>3.879543962445049</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="14">
         <v>1.7392600569226961</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="14">
         <v>1.3336732813261369</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="14">
         <v>1.1794131509482573</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="14">
         <v>1.1177613152782069</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="14">
         <v>1.0596887934671051</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="14">
         <v>1.0230343697199233</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="14">
         <v>1.0177294115574544</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M23" s="9"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="10">
         <v>7</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="14">
         <v>3.879543962445049</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="14">
         <v>1.7392600569226961</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="14">
         <v>1.3336732813261369</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="14">
         <v>1.1794131509482573</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="14">
         <v>1.1177613152782069</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="14">
         <v>1.0596887934671051</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="14">
         <v>1.0230343697199233</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="14">
         <v>1.0177294115574544</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M24" s="9"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="10">
         <v>8</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="14">
         <v>3.879543962445049</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="14">
         <v>1.7392600569226961</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="14">
         <v>1.3336732813261369</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="14">
         <v>1.1794131509482573</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="14">
         <v>1.1177613152782069</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="14">
         <v>1.0596887934671051</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="14">
         <v>1.0230343697199233</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="14">
         <v>1.0177294115574544</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M25" s="9"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="10">
         <v>9</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="14">
         <v>3.879543962445049</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="14">
         <v>1.7392600569226961</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="14">
         <v>1.3336732813261369</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="14">
         <v>1.1794131509482573</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="14">
         <v>1.1177613152782069</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="14">
         <v>1.0596887934671051</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="14">
         <v>1.0230343697199233</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="14">
         <v>1.0177294115574544</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M26" s="9"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="10">
         <v>10</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="14">
         <v>3.879543962445049</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="14">
         <v>1.7392600569226961</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="14">
         <v>1.3336732813261369</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="14">
         <v>1.1794131509482573</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="14">
         <v>1.1177613152782069</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <v>1.0596887934671051</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="14">
         <v>1.0450369103889954</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="14">
         <v>1.0230343697199233</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="14">
         <v>1.0177294115574544</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="14">
         <v>1.0163622910852779</v>
       </c>
       <c r="M27" s="9"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
     </row>
     <row r="33" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
     </row>
     <row r="34" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
     </row>
     <row r="35" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
     </row>
     <row r="36" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
     </row>
     <row r="37" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
     </row>
     <row r="38" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
     </row>
     <row r="39" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
     </row>
     <row r="40" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
     </row>
     <row r="41" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
     </row>
     <row r="42" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
     </row>
     <row r="43" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
     </row>
     <row r="44" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
     </row>
     <row r="45" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
     </row>
     <row r="46" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
     </row>
     <row r="47" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
     </row>
     <row r="48" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
     </row>
     <row r="49" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
     </row>
     <row r="50" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
     </row>
     <row r="51" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
     </row>
     <row r="52" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
     </row>
     <row r="53" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
     </row>
     <row r="54" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
     </row>
     <row r="55" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="18" t="s">
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
     </row>
     <row r="56" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
     </row>
     <row r="57" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
     </row>
     <row r="58" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
     </row>
     <row r="59" spans="14:25" x14ac:dyDescent="0.25">
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -22340,8 +22337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7171F545-11C2-4585-8FF7-DAEE0EEA8D43}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L23" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22386,16 +22383,16 @@
       <c r="L1" s="11">
         <v>10</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -22434,16 +22431,16 @@
       <c r="L2" s="13">
         <v>69073.142739999996</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -22482,16 +22479,16 @@
       <c r="L3" s="13">
         <v>0</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -22530,16 +22527,16 @@
       <c r="L4" s="13">
         <v>0</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -22578,16 +22575,16 @@
       <c r="L5" s="13">
         <v>0</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -22626,16 +22623,16 @@
       <c r="L6" s="13">
         <v>0</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -22674,16 +22671,16 @@
       <c r="L7" s="13">
         <v>0</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -22722,16 +22719,16 @@
       <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -22770,16 +22767,16 @@
       <c r="L9" s="13">
         <v>0</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -22818,16 +22815,16 @@
       <c r="L10" s="13">
         <v>0</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -22866,16 +22863,16 @@
       <c r="L11" s="13">
         <v>0</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -22914,742 +22911,742 @@
       <c r="L12" s="13">
         <v>0</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
     </row>
     <row r="17" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
     </row>
     <row r="18" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
     </row>
     <row r="19" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
     </row>
     <row r="23" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
     </row>
     <row r="49" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
     </row>
     <row r="50" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
     </row>
     <row r="51" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
     </row>
     <row r="54" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="N54" s="20" t="s">
+      <c r="N54" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
     </row>
     <row r="55" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
     </row>
     <row r="56" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
     </row>
     <row r="57" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/Hypotheses Chain Leader.xlsx
+++ b/Documents/Hypotheses Chain Leader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Risk-based-solvency\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E23146-C08E-4C7C-88F6-F1B0DFA07B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677A1E99-6F5D-4D75-A4E9-84198AF19987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{73E4CA1F-ACB0-4437-ACE3-5463DD028386}"/>
   </bookViews>
@@ -9324,11 +9324,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-MA"/>
+              <a:rPr lang="fr-MA" b="1"/>
               <a:t>année</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="fr-FR"/>
+              <a:rPr lang="fr-FR" b="1"/>
               <a:t>2013 en fonction 2012</a:t>
             </a:r>
           </a:p>
@@ -22338,7 +22338,7 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
